--- a/13002101.xlsx
+++ b/13002101.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1651D6B-EA69-4BF8-AF23-02CC945E4864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E902CB-2126-4980-BBA4-B71F22E46965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="600" windowWidth="17304" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="660" windowWidth="17304" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +154,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -186,17 +193,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,280 +540,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:3" ht="17.399999999999999">
       <c r="A1" s="2">
         <v>2021214006</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15">
+      <c r="C1" s="3">
+        <v>3332648553</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999">
       <c r="A2" s="2">
         <v>2021214007</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
+      <c r="C2" s="3">
+        <v>3046837267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.399999999999999">
       <c r="A3" s="2">
         <v>2021214008</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
+      <c r="C3" s="3">
+        <v>1602366519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.399999999999999">
       <c r="A4" s="2">
         <v>2021214009</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15">
+      <c r="C4" s="3">
+        <v>2183525095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.399999999999999">
       <c r="A5" s="2">
         <v>2021214013</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15">
+      <c r="C5" s="4">
+        <v>2198473795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.399999999999999">
       <c r="A6" s="2">
         <v>2021214014</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15">
+      <c r="C6" s="4">
+        <v>1225101127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.399999999999999">
       <c r="A7" s="2">
         <v>2021214015</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15">
+      <c r="C7" s="4">
+        <v>271070849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.399999999999999">
       <c r="A8" s="2">
         <v>2021214016</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15">
+      <c r="C8" s="4">
+        <v>1611475023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.399999999999999">
       <c r="A9" s="2">
         <v>2021214017</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15">
+      <c r="C9" s="4">
+        <v>82718788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.399999999999999">
       <c r="A10" s="2">
         <v>2021214018</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15">
+      <c r="C10" s="4">
+        <v>2353421335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.399999999999999">
       <c r="A11" s="2">
         <v>2021214020</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15">
+      <c r="C11" s="5">
+        <v>1721888363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.399999999999999">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15">
+      <c r="C12" s="4">
+        <v>1301191652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.399999999999999">
       <c r="A13" s="2">
         <v>2021214022</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15">
+      <c r="C13" s="4">
+        <v>1551224683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.399999999999999">
       <c r="A14" s="2">
         <v>2021214023</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15">
+      <c r="C14" s="4">
+        <v>3393599018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.399999999999999">
       <c r="A15" s="2">
         <v>2021214024</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15">
+      <c r="C15" s="4">
+        <v>1300178421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.399999999999999">
       <c r="A16" s="2">
         <v>2021214029</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
+      <c r="C16" s="4">
+        <v>1225853481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.399999999999999">
       <c r="A17" s="2">
         <v>2021214030</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15">
+      <c r="C17" s="4">
+        <v>2819207319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.399999999999999">
       <c r="A18" s="2">
         <v>2021214033</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15">
+      <c r="C18" s="4">
+        <v>937223482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.399999999999999">
       <c r="A19" s="2">
         <v>2021214034</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15">
+      <c r="C19" s="5">
+        <v>858121016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.399999999999999">
       <c r="A20" s="2">
         <v>2021214036</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15">
+      <c r="C20" s="3">
+        <v>2233263451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.399999999999999">
       <c r="A21" s="2">
         <v>2021214037</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
+      <c r="C21" s="3">
+        <v>2721732772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.399999999999999">
       <c r="A22" s="2">
         <v>2021214039</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15">
+      <c r="C22" s="3">
+        <v>1012979259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.399999999999999">
       <c r="A23" s="2">
         <v>2021214040</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
+      <c r="C23" s="3">
+        <v>1253643780</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.399999999999999">
       <c r="A24" s="2">
         <v>2021214041</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
+      <c r="C24" s="3">
+        <v>2058718472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.399999999999999">
       <c r="A25" s="2">
         <v>2021214042</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
+      <c r="C25" s="6">
+        <v>1517237976</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.399999999999999">
       <c r="A26" s="2">
         <v>2021214043</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
+      <c r="C26" s="3">
+        <v>2523611352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.399999999999999">
       <c r="A27" s="2">
         <v>2021214044</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15">
+      <c r="C27" s="7">
+        <v>2365402133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.399999999999999">
       <c r="A28" s="2">
         <v>2021214045</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
+      <c r="C28" s="6">
+        <v>2509572223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.399999999999999">
       <c r="A29" s="2">
         <v>2021214055</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
+      <c r="C29" s="8">
+        <v>2260367277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.399999999999999">
       <c r="A30" s="2">
         <v>2021214056</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15">
+      <c r="C30" s="6">
+        <v>3191608942</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.399999999999999">
       <c r="A31" s="2">
         <v>2021214057</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
+      <c r="C31" s="6">
+        <v>1261874400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.399999999999999">
       <c r="A32" s="2">
         <v>2021214058</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15">
+      <c r="C32" s="6">
+        <v>226310965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.399999999999999">
       <c r="A33" s="2">
         <v>2021214059</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2819564700</v>
       </c>
     </row>
   </sheetData>
